--- a/biology/Botanique/Ferdinand_de_Lesseps_(rose)/Ferdinand_de_Lesseps_(rose).xlsx
+++ b/biology/Botanique/Ferdinand_de_Lesseps_(rose)/Ferdinand_de_Lesseps_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Ferdinand de Lesseps' est un cultivar de rosier obtenu en 1869 par le rosiériste français Eugène Verdier fils[1] (1828-1902). Ce rosier a été créé pour fêter l'inauguration du canal de Suez[2] et doit son nom à son ingénieur, Ferdinand de Lesseps (1805-1894).
+'Ferdinand de Lesseps' est un cultivar de rosier obtenu en 1869 par le rosiériste français Eugène Verdier fils (1828-1902). Ce rosier a été créé pour fêter l'inauguration du canal de Suez et doit son nom à son ingénieur, Ferdinand de Lesseps (1805-1894).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de ce rosier s'élève à 120 cm pour 90 cm d'envergure[3]. Il offre des fleurs globuleuses de couleur pourpre aux reflets magenta très parfumées aux notes fruitées[4]. Ses roses doubles délicates (17-25 pétales de pourtour et plus de 60 en ensemble[5]) sont grandes en forme de coupe[6]. Leur floraison s'étale tout l'été.
-La zone de rusticité de 'Ferdinand de Lesseps' est de 6b à 9b[6]. Il a besoin d'être taillé en février-mars[4]. Ce rosier nécessite d'être planté dans une situation ensoleillée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de ce rosier s'élève à 120 cm pour 90 cm d'envergure. Il offre des fleurs globuleuses de couleur pourpre aux reflets magenta très parfumées aux notes fruitées. Ses roses doubles délicates (17-25 pétales de pourtour et plus de 60 en ensemble) sont grandes en forme de coupe. Leur floraison s'étale tout l'été.
+La zone de rusticité de 'Ferdinand de Lesseps' est de 6b à 9b. Il a besoin d'être taillé en février-mars. Ce rosier nécessite d'être planté dans une situation ensoleillée.
 </t>
         </is>
       </c>
